--- a/exposure_w2/loop_merge.xlsx
+++ b/exposure_w2/loop_merge.xlsx
@@ -385,17 +385,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_1.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_1.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_1.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_1.png</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_1.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_1.png</t>
         </is>
       </c>
     </row>
@@ -405,17 +405,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_2.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_2.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_2.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_2.png</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_2.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_2.png</t>
         </is>
       </c>
     </row>
@@ -425,17 +425,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_3.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_3.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_3.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_3.png</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_3.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_3.png</t>
         </is>
       </c>
     </row>
@@ -445,17 +445,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_4.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_4.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_4.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_4.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_4.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_4.png</t>
         </is>
       </c>
     </row>
@@ -465,17 +465,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_5.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_5.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_5.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_5.png</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_5.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_5.png</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_6.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_6.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_6.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_6.png</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_6.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_6.png</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_7.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_7.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_7.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_7.png</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_7.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_7.png</t>
         </is>
       </c>
     </row>
@@ -525,17 +525,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_8.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_8.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_8.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_8.png</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_8.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_8.png</t>
         </is>
       </c>
     </row>
@@ -545,17 +545,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_9.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_9.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_9.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_9.png</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_9.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_9.png</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_10.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_10.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_10.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_10.png</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_10.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_10.png</t>
         </is>
       </c>
     </row>
@@ -585,17 +585,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_11.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_11.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_11.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_11.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_11.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_11.png</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_12.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_12.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_12.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_12.png</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_12.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_12.png</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_13.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_13.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_13.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_13.png</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_13.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_13.png</t>
         </is>
       </c>
     </row>
@@ -645,17 +645,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_14.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_14.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_14.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_14.png</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_14.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_14.png</t>
         </is>
       </c>
     </row>
@@ -665,17 +665,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_15.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_15.png</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_15.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_15.png</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_15.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_15.png</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_16.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_16.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_16.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_16.png</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_16.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_16.png</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_17.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_17.png</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_17.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_17.png</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_17.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_17.png</t>
         </is>
       </c>
     </row>
@@ -725,17 +725,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_18.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_18.png</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_18.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_18.png</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_18.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_18.png</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_19.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_19.png</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_19.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_19.png</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_19.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_19.png</t>
         </is>
       </c>
     </row>
@@ -765,17 +765,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_20.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_20.png</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_20.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_20.png</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_20.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_20.png</t>
         </is>
       </c>
     </row>
@@ -785,17 +785,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_21.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_21.png</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_21.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_21.png</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_21.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_21.png</t>
         </is>
       </c>
     </row>
@@ -805,17 +805,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_22.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_22.png</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_22.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_22.png</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_22.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_22.png</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_23.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_23.png</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_23.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_23.png</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_23.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_23.png</t>
         </is>
       </c>
     </row>
@@ -845,17 +845,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_24.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_24.png</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_24.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_24.png</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_24.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_24.png</t>
         </is>
       </c>
     </row>
@@ -865,17 +865,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_25.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_25.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_25.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_25.png</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_25.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_25.png</t>
         </is>
       </c>
     </row>
@@ -885,17 +885,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_26.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_26.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_26.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_26.png</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_26.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_26.png</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_27.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_27.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_27.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_27.png</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_27.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_27.png</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_28.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_28.png</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_28.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_28.png</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_28.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_28.png</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_29.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_29.png</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_29.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_29.png</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_29.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_29.png</t>
         </is>
       </c>
     </row>
@@ -965,17 +965,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_30.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_30.png</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_30.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_30.png</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_30.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_30.png</t>
         </is>
       </c>
     </row>
@@ -985,17 +985,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_31.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_31.png</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_31.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_31.png</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_31.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_31.png</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1005,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_32.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_32.png</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_32.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_32.png</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_32.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_32.png</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1025,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_33.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_33.png</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_33.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_33.png</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_33.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_33.png</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_34.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_34.png</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_34.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_34.png</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_34.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_34.png</t>
         </is>
       </c>
     </row>
@@ -1065,17 +1065,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_35.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_35.png</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_35.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_35.png</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_35.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_35.png</t>
         </is>
       </c>
     </row>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_36.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_36.png</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_36.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_36.png</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_36.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_36.png</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_37.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_37.png</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_37.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_37.png</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_37.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_37.png</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1125,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_38.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_38.png</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_38.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_38.png</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_38.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_38.png</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_39.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_39.png</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_39.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_39.png</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_39.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_39.png</t>
         </is>
       </c>
     </row>
@@ -1165,17 +1165,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_40.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_40.png</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_40.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_40.png</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_40.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_40.png</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_41.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_41.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_41.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_41.png</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_41.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_41.png</t>
         </is>
       </c>
     </row>
@@ -1205,17 +1205,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_42.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_42.png</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_42.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_42.png</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_42.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_42.png</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_43.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_43.png</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_43.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_43.png</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_43.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_43.png</t>
         </is>
       </c>
     </row>
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_44.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_44.png</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_44.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_44.png</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_44.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_44.png</t>
         </is>
       </c>
     </row>
@@ -1265,17 +1265,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_45.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_45.png</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_45.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_45.png</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_45.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_45.png</t>
         </is>
       </c>
     </row>
@@ -1285,17 +1285,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_46.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_46.png</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_46.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_46.png</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_46.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_46.png</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_47.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_47.png</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_47.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_47.png</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_47.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_47.png</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1325,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_48.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_48.png</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_48.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_48.png</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_48.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_48.png</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_49.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_49.png</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_49.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_49.png</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_49.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_49.png</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_50.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_50.png</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_50.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_50.png</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_50.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_50.png</t>
         </is>
       </c>
     </row>
@@ -1385,17 +1385,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_51.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_51.png</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_51.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_51.png</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_51.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_51.png</t>
         </is>
       </c>
     </row>
@@ -1405,17 +1405,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_52.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_52.png</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_52.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_52.png</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_52.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_52.png</t>
         </is>
       </c>
     </row>
@@ -1425,17 +1425,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_53.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_53.png</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_53.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_53.png</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_53.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_53.png</t>
         </is>
       </c>
     </row>
@@ -1445,17 +1445,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_54.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_54.png</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_54.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_54.png</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_54.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_54.png</t>
         </is>
       </c>
     </row>
@@ -1465,17 +1465,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_55.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_55.png</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_55.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_55.png</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_55.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_55.png</t>
         </is>
       </c>
     </row>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_56.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_56.png</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_56.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_56.png</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_56.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_56.png</t>
         </is>
       </c>
     </row>
@@ -1505,17 +1505,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_57.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_57.png</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_57.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_57.png</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_57.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_57.png</t>
         </is>
       </c>
     </row>
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_58.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_58.png</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_58.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_58.png</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_58.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_58.png</t>
         </is>
       </c>
     </row>
@@ -1545,17 +1545,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_59.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_59.png</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_59.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_59.png</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_59.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_59.png</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1565,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_60.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_60.png</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_60.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_60.png</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_60.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_60.png</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_61.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_61.png</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_61.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_61.png</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_61.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_61.png</t>
         </is>
       </c>
     </row>
@@ -1605,17 +1605,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_62.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_62.png</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_62.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_62.png</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_62.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_62.png</t>
         </is>
       </c>
     </row>
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_63.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_63.png</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_63.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_63.png</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_63.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_63.png</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1645,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_64.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_64.png</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_64.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_64.png</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_64.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_64.png</t>
         </is>
       </c>
     </row>
@@ -1665,17 +1665,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_65.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_65.png</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_65.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_65.png</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_65.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_65.png</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1685,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_66.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_66.png</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_66.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_66.png</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_66.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_66.png</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1705,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_67.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_67.png</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_67.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_67.png</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_67.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_67.png</t>
         </is>
       </c>
     </row>
@@ -1725,17 +1725,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_68.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_68.png</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_68.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_68.png</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_68.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_68.png</t>
         </is>
       </c>
     </row>
@@ -1745,17 +1745,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_69.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_69.png</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_69.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_69.png</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_69.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_69.png</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_70.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_70.png</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_70.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_70.png</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_70.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_70.png</t>
         </is>
       </c>
     </row>
@@ -1785,17 +1785,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_71.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_71.png</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_71.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_71.png</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_71.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_71.png</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_72.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_72.png</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_72.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_72.png</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_72.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_72.png</t>
         </is>
       </c>
     </row>
@@ -1825,17 +1825,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_73.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_73.png</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_73.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_73.png</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_73.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_73.png</t>
         </is>
       </c>
     </row>
@@ -1845,17 +1845,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_74.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_74.png</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_74.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_74.png</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_74.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_74.png</t>
         </is>
       </c>
     </row>
@@ -1865,17 +1865,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_75.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_75.png</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_75.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_75.png</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_75.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_75.png</t>
         </is>
       </c>
     </row>
@@ -1885,17 +1885,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_76.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_76.png</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_76.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_76.png</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_76.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_76.png</t>
         </is>
       </c>
     </row>
@@ -1905,17 +1905,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_77.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_77.png</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_77.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_77.png</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_77.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_77.png</t>
         </is>
       </c>
     </row>
@@ -1925,17 +1925,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_78.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_78.png</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_78.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_78.png</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_78.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_78.png</t>
         </is>
       </c>
     </row>
@@ -1945,17 +1945,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_79.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_79.png</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_79.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_79.png</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_79.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_79.png</t>
         </is>
       </c>
     </row>
@@ -1965,17 +1965,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_80.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_80.png</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_80.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_80.png</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_80.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_80.png</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_81.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_81.png</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_81.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_81.png</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_81.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_81.png</t>
         </is>
       </c>
     </row>
@@ -2005,17 +2005,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_82.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_82.png</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_82.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_82.png</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_82.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_82.png</t>
         </is>
       </c>
     </row>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_83.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_83.png</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_83.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_83.png</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_83.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_83.png</t>
         </is>
       </c>
     </row>
@@ -2045,17 +2045,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_84.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_84.png</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_84.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_84.png</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_84.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_84.png</t>
         </is>
       </c>
     </row>
@@ -2065,17 +2065,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_85.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_85.png</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_85.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_85.png</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_85.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_85.png</t>
         </is>
       </c>
     </row>
@@ -2085,17 +2085,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_86.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_86.png</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_86.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_86.png</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_86.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_86.png</t>
         </is>
       </c>
     </row>
@@ -2105,17 +2105,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_87.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_87.png</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_87.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_87.png</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_87.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_87.png</t>
         </is>
       </c>
     </row>
@@ -2125,17 +2125,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_88.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_88.png</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_88.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_88.png</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_88.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_88.png</t>
         </is>
       </c>
     </row>
@@ -2145,17 +2145,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_89.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_89.png</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_89.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_89.png</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_89.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_89.png</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_90.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_90.png</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_90.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_90.png</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_90.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_90.png</t>
         </is>
       </c>
     </row>
@@ -2185,17 +2185,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_91.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_91.png</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_91.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_91.png</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_91.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_91.png</t>
         </is>
       </c>
     </row>
@@ -2205,17 +2205,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_92.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_92.png</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_92.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_92.png</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_92.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_92.png</t>
         </is>
       </c>
     </row>
@@ -2225,17 +2225,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_93.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_93.png</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_93.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_93.png</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_93.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_93.png</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_94.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_94.png</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_94.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_94.png</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_94.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_94.png</t>
         </is>
       </c>
     </row>
@@ -2265,17 +2265,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_95.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_95.png</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_95.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_95.png</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_95.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_95.png</t>
         </is>
       </c>
     </row>
@@ -2285,17 +2285,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_96.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_96.png</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_96.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_96.png</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_96.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_96.png</t>
         </is>
       </c>
     </row>
@@ -2305,17 +2305,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_97.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_97.png</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_97.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_97.png</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_97.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_97.png</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_98.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_98.png</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_98.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_98.png</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_98.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_98.png</t>
         </is>
       </c>
     </row>
@@ -2345,17 +2345,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_99.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_99.png</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_99.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_99.png</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_99.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_99.png</t>
         </is>
       </c>
     </row>
@@ -2365,17 +2365,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_100.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_100.png</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_100.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_100.png</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_100.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_100.png</t>
         </is>
       </c>
     </row>
@@ -2385,17 +2385,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_101.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_101.png</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_101.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_101.png</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_101.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_101.png</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2405,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_102.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_102.png</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_102.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_102.png</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_102.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_102.png</t>
         </is>
       </c>
     </row>
@@ -2425,17 +2425,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_103.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_103.png</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_103.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_103.png</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_103.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_103.png</t>
         </is>
       </c>
     </row>
@@ -2445,17 +2445,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_104.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_104.png</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_104.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_104.png</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_104.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_104.png</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_105.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_105.png</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_105.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_105.png</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_105.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_105.png</t>
         </is>
       </c>
     </row>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_106.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_106.png</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_106.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_106.png</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_106.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_106.png</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_107.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_107.png</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_107.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_107.png</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_107.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_107.png</t>
         </is>
       </c>
     </row>
@@ -2525,17 +2525,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_108.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_108.png</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_108.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_108.png</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_108.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_108.png</t>
         </is>
       </c>
     </row>
@@ -2545,17 +2545,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_109.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_109.png</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_109.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_109.png</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_109.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_109.png</t>
         </is>
       </c>
     </row>
@@ -2565,17 +2565,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_110.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_110.png</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_110.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_110.png</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_110.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_110.png</t>
         </is>
       </c>
     </row>
@@ -2585,17 +2585,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_111.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_111.png</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_111.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_111.png</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_111.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_111.png</t>
         </is>
       </c>
     </row>
@@ -2605,17 +2605,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_112.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_112.png</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_112.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_112.png</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_112.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_112.png</t>
         </is>
       </c>
     </row>
@@ -2625,17 +2625,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_113.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_113.png</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_113.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_113.png</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_113.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_113.png</t>
         </is>
       </c>
     </row>
@@ -2645,17 +2645,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_114.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_114.png</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_114.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_114.png</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_114.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_114.png</t>
         </is>
       </c>
     </row>
@@ -2665,17 +2665,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_115.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_115.png</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_115.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_115.png</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_115.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_115.png</t>
         </is>
       </c>
     </row>
@@ -2685,17 +2685,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_116.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_116.png</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_116.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_116.png</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_116.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_116.png</t>
         </is>
       </c>
     </row>
@@ -2705,17 +2705,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_117.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_117.png</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_117.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_117.png</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_117.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_117.png</t>
         </is>
       </c>
     </row>
@@ -2725,17 +2725,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_118.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_118.png</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_118.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_118.png</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_118.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_118.png</t>
         </is>
       </c>
     </row>
@@ -2745,17 +2745,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_119.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_119.png</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_119.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_119.png</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_119.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_119.png</t>
         </is>
       </c>
     </row>
@@ -2765,17 +2765,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_120.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_120.png</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_120.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_120.png</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_120.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_120.png</t>
         </is>
       </c>
     </row>
@@ -2785,17 +2785,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_121.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_121.png</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_121.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_121.png</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_121.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_121.png</t>
         </is>
       </c>
     </row>
@@ -2805,17 +2805,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_122.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_122.png</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_122.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_122.png</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_122.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_122.png</t>
         </is>
       </c>
     </row>
@@ -2825,17 +2825,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_123.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_123.png</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_123.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_123.png</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_123.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_123.png</t>
         </is>
       </c>
     </row>
@@ -2845,17 +2845,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_124.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_124.png</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_124.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_124.png</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_124.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_124.png</t>
         </is>
       </c>
     </row>
@@ -2865,17 +2865,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_125.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_125.png</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_125.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_125.png</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_125.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_125.png</t>
         </is>
       </c>
     </row>
@@ -2885,17 +2885,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_126.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_126.png</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_126.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_126.png</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_126.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_126.png</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_127.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_127.png</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_127.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_127.png</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_127.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_127.png</t>
         </is>
       </c>
     </row>
@@ -2925,17 +2925,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_128.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_128.png</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_128.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_128.png</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_128.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_128.png</t>
         </is>
       </c>
     </row>
@@ -2945,17 +2945,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_129.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_129.png</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_129.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_129.png</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_129.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_129.png</t>
         </is>
       </c>
     </row>
@@ -2965,17 +2965,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_130.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_130.png</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_130.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_130.png</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_130.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_130.png</t>
         </is>
       </c>
     </row>
@@ -2985,17 +2985,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_131.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_131.png</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_131.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_131.png</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_131.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_131.png</t>
         </is>
       </c>
     </row>
@@ -3005,17 +3005,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_132.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_132.png</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_132.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_132.png</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_132.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_132.png</t>
         </is>
       </c>
     </row>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_133.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_133.png</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_133.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_133.png</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_133.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_133.png</t>
         </is>
       </c>
     </row>
@@ -3045,17 +3045,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_134.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_134.png</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_134.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_134.png</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_134.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_134.png</t>
         </is>
       </c>
     </row>
@@ -3065,17 +3065,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_135.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_135.png</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_135.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_135.png</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_135.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_135.png</t>
         </is>
       </c>
     </row>
@@ -3085,17 +3085,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_136.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_136.png</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_136.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_136.png</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_136.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_136.png</t>
         </is>
       </c>
     </row>
@@ -3105,17 +3105,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_137.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_137.png</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_137.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_137.png</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_137.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_137.png</t>
         </is>
       </c>
     </row>
@@ -3125,17 +3125,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_138.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_138.png</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_138.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_138.png</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_138.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_138.png</t>
         </is>
       </c>
     </row>
@@ -3145,17 +3145,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_139.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_139.png</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_139.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_139.png</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_139.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_139.png</t>
         </is>
       </c>
     </row>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_140.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_140.png</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_140.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_140.png</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_140.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_140.png</t>
         </is>
       </c>
     </row>
@@ -3185,17 +3185,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_141.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_141.png</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_141.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_141.png</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_141.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_141.png</t>
         </is>
       </c>
     </row>
@@ -3205,17 +3205,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_142.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_142.png</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_142.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_142.png</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_142.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_142.png</t>
         </is>
       </c>
     </row>
@@ -3225,17 +3225,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_143.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_143.png</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_143.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_143.png</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_143.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_143.png</t>
         </is>
       </c>
     </row>
@@ -3245,17 +3245,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_144.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_144.png</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_144.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_144.png</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_144.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_144.png</t>
         </is>
       </c>
     </row>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_145.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_145.png</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_145.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_145.png</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_145.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_145.png</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3285,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_146.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_146.png</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_146.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_146.png</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_146.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_146.png</t>
         </is>
       </c>
     </row>
@@ -3305,17 +3305,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_147.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_147.png</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_147.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_147.png</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_147.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_147.png</t>
         </is>
       </c>
     </row>
@@ -3325,17 +3325,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_148.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_148.png</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_148.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_148.png</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_148.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_148.png</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_149.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_149.png</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_149.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_149.png</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_149.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_149.png</t>
         </is>
       </c>
     </row>
@@ -3365,17 +3365,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_150.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_150.png</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_150.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_150.png</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_150.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_150.png</t>
         </is>
       </c>
     </row>
@@ -3385,17 +3385,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_151.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_151.png</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_151.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_151.png</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_151.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_151.png</t>
         </is>
       </c>
     </row>
@@ -3405,17 +3405,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_152.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_152.png</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_152.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_152.png</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_152.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_152.png</t>
         </is>
       </c>
     </row>
@@ -3425,17 +3425,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_153.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_153.png</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_153.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_153.png</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_153.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_153.png</t>
         </is>
       </c>
     </row>
@@ -3445,17 +3445,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_154.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_154.png</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_154.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_154.png</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_154.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_154.png</t>
         </is>
       </c>
     </row>
@@ -3465,17 +3465,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_155.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_155.png</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_155.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_155.png</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_155.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_155.png</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_156.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_156.png</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_156.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_156.png</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_156.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_156.png</t>
         </is>
       </c>
     </row>
@@ -3505,17 +3505,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_157.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_157.png</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_157.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_157.png</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_157.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_157.png</t>
         </is>
       </c>
     </row>
@@ -3525,17 +3525,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_158.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_158.png</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_158.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_158.png</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_158.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_158.png</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_159.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_159.png</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_159.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_159.png</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_159.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_159.png</t>
         </is>
       </c>
     </row>
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_160.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_160.png</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_160.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_160.png</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_160.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_160.png</t>
         </is>
       </c>
     </row>
@@ -3585,17 +3585,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_161.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_161.png</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_161.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_161.png</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_161.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_161.png</t>
         </is>
       </c>
     </row>
@@ -3605,17 +3605,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_162.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_162.png</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_162.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_162.png</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_162.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_162.png</t>
         </is>
       </c>
     </row>
@@ -3625,17 +3625,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_163.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_163.png</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_163.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_163.png</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_163.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_163.png</t>
         </is>
       </c>
     </row>
@@ -3645,17 +3645,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_164.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_164.png</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_164.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_164.png</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_164.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_164.png</t>
         </is>
       </c>
     </row>
@@ -3665,17 +3665,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_165.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_165.png</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_165.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_165.png</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_165.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_165.png</t>
         </is>
       </c>
     </row>
@@ -3685,17 +3685,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_166.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_166.png</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_166.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_166.png</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_166.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_166.png</t>
         </is>
       </c>
     </row>
@@ -3705,17 +3705,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_167.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_167.png</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_167.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_167.png</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_167.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_167.png</t>
         </is>
       </c>
     </row>
@@ -3725,17 +3725,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_168.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_168.png</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_168.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_168.png</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_168.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_168.png</t>
         </is>
       </c>
     </row>
@@ -3745,17 +3745,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_169.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_169.png</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_169.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_169.png</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_169.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_169.png</t>
         </is>
       </c>
     </row>
@@ -3765,17 +3765,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_170.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_170.png</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_170.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_170.png</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_170.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_170.png</t>
         </is>
       </c>
     </row>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_171.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_171.png</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_171.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_171.png</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_171.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_171.png</t>
         </is>
       </c>
     </row>
@@ -3805,17 +3805,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_172.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_172.png</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_172.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_172.png</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_172.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_172.png</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_173.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_173.png</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_173.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_173.png</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_173.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_173.png</t>
         </is>
       </c>
     </row>
@@ -3845,17 +3845,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_174.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_174.png</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_174.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_174.png</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_174.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_174.png</t>
         </is>
       </c>
     </row>
@@ -3865,17 +3865,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_175.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_175.png</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_175.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_175.png</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_175.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_175.png</t>
         </is>
       </c>
     </row>
@@ -3885,17 +3885,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_176.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_176.png</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_176.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_176.png</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_176.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_176.png</t>
         </is>
       </c>
     </row>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_177.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_177.png</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_177.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_177.png</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_177.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_177.png</t>
         </is>
       </c>
     </row>
@@ -3925,17 +3925,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_178.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_178.png</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_178.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_178.png</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_178.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_178.png</t>
         </is>
       </c>
     </row>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_179.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_179.png</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_179.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_179.png</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_179.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_179.png</t>
         </is>
       </c>
     </row>
@@ -3965,17 +3965,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_180.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_180.png</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_180.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_180.png</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_180.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_180.png</t>
         </is>
       </c>
     </row>
@@ -3985,17 +3985,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_181.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_181.png</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_181.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_181.png</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_181.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_181.png</t>
         </is>
       </c>
     </row>
@@ -4005,17 +4005,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_182.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_182.png</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_182.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_182.png</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_182.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_182.png</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4025,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_183.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_183.png</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_183.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_183.png</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_183.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_183.png</t>
         </is>
       </c>
     </row>
@@ -4045,17 +4045,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_184.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_184.png</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_184.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_184.png</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_184.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_184.png</t>
         </is>
       </c>
     </row>
@@ -4065,17 +4065,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_185.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_185.png</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_185.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_185.png</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_185.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_185.png</t>
         </is>
       </c>
     </row>
@@ -4085,17 +4085,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_186.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_186.png</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_186.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_186.png</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_186.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_186.png</t>
         </is>
       </c>
     </row>
@@ -4105,17 +4105,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_187.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_187.png</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_187.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_187.png</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_187.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_187.png</t>
         </is>
       </c>
     </row>
@@ -4125,17 +4125,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_188.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_188.png</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_188.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_188.png</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_188.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_188.png</t>
         </is>
       </c>
     </row>
@@ -4145,17 +4145,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_189.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_189.png</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_189.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_189.png</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_189.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_189.png</t>
         </is>
       </c>
     </row>
@@ -4165,17 +4165,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_190.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_190.png</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_190.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_190.png</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_190.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_190.png</t>
         </is>
       </c>
     </row>
@@ -4185,17 +4185,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_191.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_191.png</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_191.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_191.png</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_191.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_191.png</t>
         </is>
       </c>
     </row>
@@ -4205,17 +4205,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_192.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_192.png</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_192.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_192.png</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_192.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_192.png</t>
         </is>
       </c>
     </row>
@@ -4225,17 +4225,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_193.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_193.png</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_193.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_193.png</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_193.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_193.png</t>
         </is>
       </c>
     </row>
@@ -4245,17 +4245,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_194.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_194.png</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_194.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_194.png</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_194.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_194.png</t>
         </is>
       </c>
     </row>
@@ -4265,17 +4265,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_195.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_195.png</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_195.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_195.png</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_195.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_195.png</t>
         </is>
       </c>
     </row>
@@ -4285,17 +4285,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_196.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_196.png</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_196.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_196.png</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_196.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_196.png</t>
         </is>
       </c>
     </row>
@@ -4305,17 +4305,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_197.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_197.png</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_197.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_197.png</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_197.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_197.png</t>
         </is>
       </c>
     </row>
@@ -4325,17 +4325,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_198.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_198.png</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_198.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_198.png</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_198.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_198.png</t>
         </is>
       </c>
     </row>
@@ -4345,17 +4345,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_199.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_199.png</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_199.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_199.png</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_199.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_199.png</t>
         </is>
       </c>
     </row>
@@ -4365,17 +4365,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_200.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_200.png</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_200.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_200.png</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_200.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_200.png</t>
         </is>
       </c>
     </row>
@@ -4385,17 +4385,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_201.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_201.png</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_201.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_201.png</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_201.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_201.png</t>
         </is>
       </c>
     </row>
@@ -4405,17 +4405,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_202.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_202.png</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_202.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_202.png</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_202.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_202.png</t>
         </is>
       </c>
     </row>
@@ -4425,17 +4425,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_203.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_203.png</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_203.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_203.png</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_203.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_203.png</t>
         </is>
       </c>
     </row>
@@ -4445,17 +4445,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_204.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_204.png</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_204.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_204.png</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_204.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_204.png</t>
         </is>
       </c>
     </row>
@@ -4465,17 +4465,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_205.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_205.png</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_205.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_205.png</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_205.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_205.png</t>
         </is>
       </c>
     </row>
@@ -4485,17 +4485,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_206.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_206.png</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_206.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_206.png</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_206.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_206.png</t>
         </is>
       </c>
     </row>
@@ -4505,17 +4505,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_207.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_207.png</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_207.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_207.png</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_207.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_207.png</t>
         </is>
       </c>
     </row>
@@ -4525,17 +4525,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_208.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_208.png</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_208.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_208.png</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_208.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_208.png</t>
         </is>
       </c>
     </row>
@@ -4545,17 +4545,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_209.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_209.png</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_209.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_209.png</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_209.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_209.png</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_210.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_210.png</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_210.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_210.png</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_210.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_210.png</t>
         </is>
       </c>
     </row>
@@ -4585,17 +4585,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_211.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_211.png</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_211.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_211.png</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_211.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_211.png</t>
         </is>
       </c>
     </row>
@@ -4605,17 +4605,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_212.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_212.png</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_212.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_212.png</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_212.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_212.png</t>
         </is>
       </c>
     </row>
@@ -4625,17 +4625,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_213.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_213.png</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_213.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_213.png</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_213.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_213.png</t>
         </is>
       </c>
     </row>
@@ -4645,17 +4645,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_214.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_214.png</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_214.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_214.png</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_214.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_214.png</t>
         </is>
       </c>
     </row>
@@ -4665,17 +4665,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_215.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_215.png</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_215.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_215.png</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_215.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_215.png</t>
         </is>
       </c>
     </row>
@@ -4685,17 +4685,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_216.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_216.png</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_216.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_216.png</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_216.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_216.png</t>
         </is>
       </c>
     </row>
@@ -4705,17 +4705,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_217.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_217.png</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_217.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_217.png</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_217.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_217.png</t>
         </is>
       </c>
     </row>
@@ -4725,17 +4725,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_218.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_218.png</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_218.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_218.png</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_218.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_218.png</t>
         </is>
       </c>
     </row>
@@ -4745,17 +4745,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_219.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_219.png</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_219.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_219.png</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_219.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_219.png</t>
         </is>
       </c>
     </row>
@@ -4765,17 +4765,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_220.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_220.png</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_220.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_220.png</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_220.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_220.png</t>
         </is>
       </c>
     </row>
@@ -4785,17 +4785,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_221.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_221.png</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_221.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_221.png</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_221.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_221.png</t>
         </is>
       </c>
     </row>
@@ -4805,17 +4805,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_222.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_222.png</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_222.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_222.png</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_222.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_222.png</t>
         </is>
       </c>
     </row>
@@ -4825,17 +4825,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_223.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_223.png</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_223.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_223.png</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_223.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_223.png</t>
         </is>
       </c>
     </row>
@@ -4845,17 +4845,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_224.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_224.png</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_224.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_224.png</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_224.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_224.png</t>
         </is>
       </c>
     </row>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_225.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_225.png</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_225.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_225.png</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_225.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_225.png</t>
         </is>
       </c>
     </row>
@@ -4885,17 +4885,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_226.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_226.png</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_226.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_226.png</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_226.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_226.png</t>
         </is>
       </c>
     </row>
@@ -4905,17 +4905,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_227.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_227.png</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_227.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_227.png</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_227.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_227.png</t>
         </is>
       </c>
     </row>
@@ -4925,17 +4925,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_228.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_228.png</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_228.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_228.png</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_228.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_228.png</t>
         </is>
       </c>
     </row>
@@ -4945,17 +4945,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_229.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_229.png</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_229.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_229.png</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_229.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_229.png</t>
         </is>
       </c>
     </row>
@@ -4965,17 +4965,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_230.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_230.png</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_230.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_230.png</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_230.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_230.png</t>
         </is>
       </c>
     </row>
@@ -4985,17 +4985,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_231.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_231.png</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_231.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_231.png</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_231.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_231.png</t>
         </is>
       </c>
     </row>
@@ -5005,17 +5005,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_232.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_232.png</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_232.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_232.png</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_232.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_232.png</t>
         </is>
       </c>
     </row>
@@ -5025,17 +5025,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_233.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_233.png</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_233.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_233.png</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_233.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_233.png</t>
         </is>
       </c>
     </row>
@@ -5045,17 +5045,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_234.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_234.png</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_234.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_234.png</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_234.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_234.png</t>
         </is>
       </c>
     </row>
@@ -5065,17 +5065,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_235.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_235.png</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_235.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_235.png</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_235.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_235.png</t>
         </is>
       </c>
     </row>
@@ -5085,17 +5085,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_236.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_236.png</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_236.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_236.png</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_236.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_236.png</t>
         </is>
       </c>
     </row>
@@ -5105,17 +5105,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_237.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_237.png</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_237.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_237.png</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_237.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_237.png</t>
         </is>
       </c>
     </row>
@@ -5125,17 +5125,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_238.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_238.png</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_238.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_238.png</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_238.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_238.png</t>
         </is>
       </c>
     </row>
@@ -5145,17 +5145,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_239.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_239.png</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_239.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_239.png</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_239.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_239.png</t>
         </is>
       </c>
     </row>
@@ -5165,17 +5165,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_240.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_240.png</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_240.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_240.png</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_240.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_240.png</t>
         </is>
       </c>
     </row>
@@ -5185,17 +5185,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_241.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_241.png</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_241.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_241.png</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_241.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_241.png</t>
         </is>
       </c>
     </row>
@@ -5205,17 +5205,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_242.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_242.png</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_242.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_242.png</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_242.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_242.png</t>
         </is>
       </c>
     </row>
@@ -5225,17 +5225,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_243.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_243.png</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_243.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_243.png</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_243.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_243.png</t>
         </is>
       </c>
     </row>
@@ -5245,17 +5245,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_244.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_244.png</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_244.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_244.png</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_244.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_244.png</t>
         </is>
       </c>
     </row>
@@ -5265,17 +5265,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_245.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_245.png</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_245.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_245.png</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_245.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_245.png</t>
         </is>
       </c>
     </row>
@@ -5285,17 +5285,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_246.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_246.png</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_246.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_246.png</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_246.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_246.png</t>
         </is>
       </c>
     </row>
@@ -5305,17 +5305,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_247.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_247.png</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_247.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_247.png</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_247.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_247.png</t>
         </is>
       </c>
     </row>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_248.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_248.png</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_248.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_248.png</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_248.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_248.png</t>
         </is>
       </c>
     </row>
@@ -5345,17 +5345,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_249.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_249.png</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_249.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_249.png</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_249.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_249.png</t>
         </is>
       </c>
     </row>
@@ -5365,17 +5365,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_250.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_250.png</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_250.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_250.png</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_250.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_250.png</t>
         </is>
       </c>
     </row>
@@ -5385,17 +5385,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_251.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_251.png</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_251.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_251.png</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_251.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_251.png</t>
         </is>
       </c>
     </row>
@@ -5405,17 +5405,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_252.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_252.png</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_252.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_252.png</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_252.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_252.png</t>
         </is>
       </c>
     </row>
@@ -5425,17 +5425,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_253.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_253.png</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_253.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_253.png</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_253.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_253.png</t>
         </is>
       </c>
     </row>
@@ -5445,17 +5445,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_254.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_254.png</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_254.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_254.png</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_254.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_254.png</t>
         </is>
       </c>
     </row>
@@ -5465,17 +5465,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_255.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_255.png</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_255.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_255.png</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_255.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_255.png</t>
         </is>
       </c>
     </row>
@@ -5485,17 +5485,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_256.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_256.png</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_256.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_256.png</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_256.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_256.png</t>
         </is>
       </c>
     </row>
@@ -5505,17 +5505,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_257.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_257.png</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_257.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_257.png</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_257.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_257.png</t>
         </is>
       </c>
     </row>
@@ -5525,17 +5525,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_258.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_258.png</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_258.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_258.png</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_258.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_258.png</t>
         </is>
       </c>
     </row>
@@ -5545,17 +5545,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_259.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_259.png</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_259.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_259.png</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_259.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_259.png</t>
         </is>
       </c>
     </row>
@@ -5565,17 +5565,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_260.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_260.png</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_260.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_260.png</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_260.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_260.png</t>
         </is>
       </c>
     </row>
@@ -5585,17 +5585,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_261.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_261.png</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_261.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_261.png</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_261.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_261.png</t>
         </is>
       </c>
     </row>
@@ -5605,17 +5605,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_262.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_262.png</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_262.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_262.png</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_262.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_262.png</t>
         </is>
       </c>
     </row>
@@ -5625,17 +5625,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_263.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_263.png</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_263.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_263.png</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_263.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_263.png</t>
         </is>
       </c>
     </row>
@@ -5645,17 +5645,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_264.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_264.png</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_264.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_264.png</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_264.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_264.png</t>
         </is>
       </c>
     </row>
@@ -5665,17 +5665,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_265.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_265.png</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_265.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_265.png</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_265.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_265.png</t>
         </is>
       </c>
     </row>
@@ -5685,17 +5685,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_266.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_266.png</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_266.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_266.png</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_266.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_266.png</t>
         </is>
       </c>
     </row>
@@ -5705,17 +5705,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_267.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_267.png</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_267.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_267.png</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_267.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_267.png</t>
         </is>
       </c>
     </row>
@@ -5725,17 +5725,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_268.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_268.png</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_268.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_268.png</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_268.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_268.png</t>
         </is>
       </c>
     </row>
@@ -5745,17 +5745,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_269.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_269.png</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_269.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_269.png</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_269.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_269.png</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_270.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_270.png</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_270.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_270.png</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_270.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_270.png</t>
         </is>
       </c>
     </row>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_271.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_271.png</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_271.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_271.png</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_271.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_271.png</t>
         </is>
       </c>
     </row>
@@ -5805,17 +5805,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_272.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_272.png</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_272.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_272.png</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_272.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_272.png</t>
         </is>
       </c>
     </row>
@@ -5825,17 +5825,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_273.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_273.png</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_273.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_273.png</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_273.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_273.png</t>
         </is>
       </c>
     </row>
@@ -5845,17 +5845,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_274.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_274.png</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_274.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_274.png</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_274.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_274.png</t>
         </is>
       </c>
     </row>
@@ -5865,17 +5865,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_275.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_275.png</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_275.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_275.png</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_275.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_275.png</t>
         </is>
       </c>
     </row>
@@ -5885,17 +5885,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_276.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_276.png</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_276.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_276.png</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_276.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_276.png</t>
         </is>
       </c>
     </row>
@@ -5905,17 +5905,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_277.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_277.png</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_277.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_277.png</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_277.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_277.png</t>
         </is>
       </c>
     </row>
@@ -5925,17 +5925,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_278.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_278.png</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_278.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_278.png</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_278.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_278.png</t>
         </is>
       </c>
     </row>
@@ -5945,17 +5945,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_279.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_279.png</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_279.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_279.png</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_279.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_279.png</t>
         </is>
       </c>
     </row>
@@ -5965,17 +5965,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_280.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_280.png</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_280.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_280.png</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_280.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_280.png</t>
         </is>
       </c>
     </row>
@@ -5985,17 +5985,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_281.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_281.png</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_281.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_281.png</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_281.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_281.png</t>
         </is>
       </c>
     </row>
@@ -6005,17 +6005,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_282.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_282.png</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_282.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_282.png</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_282.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_282.png</t>
         </is>
       </c>
     </row>
@@ -6025,17 +6025,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_283.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_283.png</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_283.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_283.png</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_283.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_283.png</t>
         </is>
       </c>
     </row>
@@ -6045,17 +6045,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_284.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_284.png</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_284.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_284.png</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_284.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_284.png</t>
         </is>
       </c>
     </row>
@@ -6065,17 +6065,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_285.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_285.png</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_285.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_285.png</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_285.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_285.png</t>
         </is>
       </c>
     </row>
@@ -6085,17 +6085,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_286.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_286.png</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_286.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_286.png</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_286.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_286.png</t>
         </is>
       </c>
     </row>
@@ -6105,17 +6105,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_287.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_287.png</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_287.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_287.png</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_287.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_287.png</t>
         </is>
       </c>
     </row>
@@ -6125,17 +6125,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_288.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_288.png</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_288.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_288.png</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_288.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_288.png</t>
         </is>
       </c>
     </row>
@@ -6145,17 +6145,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_289.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_289.png</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_289.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_289.png</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_289.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_289.png</t>
         </is>
       </c>
     </row>
@@ -6165,17 +6165,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_290.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_290.png</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_290.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_290.png</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_290.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_290.png</t>
         </is>
       </c>
     </row>
@@ -6185,17 +6185,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_291.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_291.png</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_291.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_291.png</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_291.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_291.png</t>
         </is>
       </c>
     </row>
@@ -6205,17 +6205,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_292.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_292.png</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_292.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_292.png</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_292.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_292.png</t>
         </is>
       </c>
     </row>
@@ -6225,17 +6225,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_293.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_293.png</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_293.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_293.png</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_293.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_293.png</t>
         </is>
       </c>
     </row>
@@ -6245,17 +6245,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_294.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_294.png</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_294.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_294.png</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_294.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_294.png</t>
         </is>
       </c>
     </row>
@@ -6265,17 +6265,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_295.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_295.png</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_295.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_295.png</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_295.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_295.png</t>
         </is>
       </c>
     </row>
@@ -6285,17 +6285,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_296.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_296.png</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_296.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_296.png</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_296.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_296.png</t>
         </is>
       </c>
     </row>
@@ -6305,17 +6305,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_297.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_297.png</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_297.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_297.png</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_297.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_297.png</t>
         </is>
       </c>
     </row>
@@ -6325,17 +6325,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_298.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_298.png</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_298.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_298.png</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_298.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_298.png</t>
         </is>
       </c>
     </row>
@@ -6345,17 +6345,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_w_uncert/wk_299.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_w_uncert/wk_299.png</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_forecast_wo_uncert/wk_299.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_forecast_wo_uncert/wk_299.png</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://digital-citizen-lab.com/exposure_w2/wk_gewwahrscheinl_wo_uncert/wk_299.png</t>
+          <t>https://digital-citizen-lab.com/exposure_w2/plots/wk_gewwahrscheinl_wo_uncert/wk_299.png</t>
         </is>
       </c>
     </row>
